--- a/___Estadistica_1-Notas___/__Ejemplos_En_Clase__/2020-01-14-Clase.xlsx
+++ b/___Estadistica_1-Notas___/__Ejemplos_En_Clase__/2020-01-14-Clase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_Semestre-[Enero-Mayo-2020]\____SumaDeCursosUFM2.1____\___Estadistica_1-Notas___\__Ejemplos_En_Clase__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE8BED8-2888-46A0-8EB1-FB75F0EA3126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D1AB4E-C1AA-44F6-ACFB-E15DDFB3D1F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,8 +33,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={8ECB92D9-893D-4EAF-AD19-52DC32E32A7C}</author>
+  </authors>
+  <commentList>
+    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{8ECB92D9-893D-4EAF-AD19-52DC32E32A7C}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Está a 21.2 cm de la media</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="37">
   <si>
     <t>Estatura</t>
   </si>
@@ -69,21 +87,6 @@
     <t>Total general</t>
   </si>
   <si>
-    <t>150-159</t>
-  </si>
-  <si>
-    <t>160-169</t>
-  </si>
-  <si>
-    <t>170-179</t>
-  </si>
-  <si>
-    <t>180-189</t>
-  </si>
-  <si>
-    <t>190-200</t>
-  </si>
-  <si>
     <t>Cuenta de Estatura</t>
   </si>
   <si>
@@ -101,12 +104,75 @@
   <si>
     <t xml:space="preserve">Cuartil 2 = </t>
   </si>
+  <si>
+    <t xml:space="preserve">Rango = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rango intercuartílico = </t>
+  </si>
+  <si>
+    <t>155-159</t>
+  </si>
+  <si>
+    <t>160-164</t>
+  </si>
+  <si>
+    <t>165-169</t>
+  </si>
+  <si>
+    <t>170-174</t>
+  </si>
+  <si>
+    <t>175-179</t>
+  </si>
+  <si>
+    <t>180-184</t>
+  </si>
+  <si>
+    <t>190-194</t>
+  </si>
+  <si>
+    <t>Q3-Q1</t>
+  </si>
+  <si>
+    <t>Xi-Xbarra</t>
+  </si>
+  <si>
+    <t>(Xi-Xbarra)^2</t>
+  </si>
+  <si>
+    <t>((Xi-Xbarra)^2)/n-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varianza = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desviación estándar = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejemplo 2: </t>
+  </si>
+  <si>
+    <t>Grupo 1</t>
+  </si>
+  <si>
+    <t>Grupo 2</t>
+  </si>
+  <si>
+    <t>xbarra</t>
+  </si>
+  <si>
+    <t>desviación estándar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;Q&quot;#,##0;[Red]\-&quot;Q&quot;#,##0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +194,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -243,17 +315,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -418,46 +491,58 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$36:$G$41</c:f>
+              <c:f>Sheet1!$G$36:$G$43</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>150-159</c:v>
+                  <c:v>155-159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160-169</c:v>
+                  <c:v>160-164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170-179</c:v>
+                  <c:v>165-169</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180-189</c:v>
+                  <c:v>170-174</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190-200</c:v>
+                  <c:v>175-179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180-184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190-194</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$36:$H$41</c:f>
+              <c:f>Sheet1!$H$36:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1272,6 +1357,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="David Corzo" id="{E7D297DC-20F5-4C80-9A83-079C431A9A7A}" userId="S::davidcorzo@office.ufm.edu::64433b81-17c1-464b-b78f-6a6bd150a5d7" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="DAVID CORZO" refreshedDate="43844.514232407404" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="30" xr:uid="{99468662-CB02-4A5D-86A6-2D7115DF4563}">
   <cacheSource type="worksheet">
@@ -1303,14 +1394,19 @@
         <n v="160"/>
       </sharedItems>
       <fieldGroup base="0">
-        <rangePr autoStart="0" autoEnd="0" startNum="150" endNum="200" groupInterval="10"/>
-        <groupItems count="7">
+        <rangePr autoStart="0" autoEnd="0" startNum="150" endNum="200" groupInterval="5"/>
+        <groupItems count="12">
           <s v="&lt;150"/>
-          <s v="150-159"/>
-          <s v="160-169"/>
-          <s v="170-179"/>
-          <s v="180-189"/>
-          <s v="190-200"/>
+          <s v="150-154"/>
+          <s v="155-159"/>
+          <s v="160-164"/>
+          <s v="165-169"/>
+          <s v="170-174"/>
+          <s v="175-179"/>
+          <s v="180-184"/>
+          <s v="185-189"/>
+          <s v="190-194"/>
+          <s v="195-200"/>
           <s v="&gt;200"/>
         </groupItems>
       </fieldGroup>
@@ -1453,11 +1549,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCFC5A2E-F53B-4977-9D4D-709695D6E5B4}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="G35:H41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCFC5A2E-F53B-4977-9D4D-709695D6E5B4}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="G35:H43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
+      <items count="13">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1465,6 +1561,11 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1473,10 +1574,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
+  <rowItems count="8">
     <i>
       <x v="2"/>
     </i>
@@ -1488,6 +1586,15 @@
     </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -1783,38 +1890,46 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D98" dT="2020-01-16T18:32:09.26" personId="{E7D297DC-20F5-4C80-9A83-079C431A9A7A}" id="{8ECB92D9-893D-4EAF-AD19-52DC32E32A7C}">
+    <text>Está a 21.2 cm de la media</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -2520,17 +2635,17 @@
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="A34" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
@@ -2541,11 +2656,11 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="14" t="s">
         <v>9</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2553,10 +2668,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="5">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>6</v>
@@ -2565,10 +2680,10 @@
         <f>MEDIAN(B36:B66)</f>
         <v>174.5</v>
       </c>
-      <c r="G36" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="15">
+      <c r="G36" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2577,10 +2692,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="5">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>7</v>
@@ -2589,11 +2704,11 @@
         <f>AVERAGE(B36:B65)</f>
         <v>172.8</v>
       </c>
-      <c r="G37" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="15">
-        <v>7</v>
+      <c r="G37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="13">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2601,10 +2716,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="5">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
@@ -2612,11 +2727,11 @@
       <c r="E38" s="7">
         <v>174.5</v>
       </c>
-      <c r="G38" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="15">
-        <v>13</v>
+      <c r="G38" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2625,17 +2740,17 @@
         <v>4</v>
       </c>
       <c r="B39" s="5">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
-      <c r="G39" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="15">
+      <c r="G39" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2645,23 +2760,23 @@
         <v>5</v>
       </c>
       <c r="B40" s="5">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="7">
         <f>MODE(B36:B65)</f>
         <v>176</v>
       </c>
-      <c r="G40" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="15">
-        <v>2</v>
+      <c r="G40" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="13">
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2670,18 +2785,18 @@
         <v>6</v>
       </c>
       <c r="B41" s="5">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
-      <c r="G41" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="15">
-        <v>30</v>
+      <c r="G41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="13">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2690,20 +2805,26 @@
         <v>7</v>
       </c>
       <c r="B42" s="5">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>18</v>
+      <c r="D42" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="E42" s="7">
         <f>_xlfn.PERCENTILE.INC(B36:B65,0.2)</f>
         <v>163.4</v>
       </c>
-      <c r="F42" s="18" t="s">
-        <v>19</v>
+      <c r="F42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2712,14 +2833,20 @@
         <v>8</v>
       </c>
       <c r="B43" s="5">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="18"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="13">
+        <v>30</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -2727,14 +2854,14 @@
         <v>9</v>
       </c>
       <c r="B44" s="5">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="18"/>
+      <c r="F44" s="19"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -2742,13 +2869,13 @@
         <v>10</v>
       </c>
       <c r="B45" s="5">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E45" s="7">
         <f>_xlfn.PERCENTILE.EXC(B36:B65,0.5)</f>
@@ -2761,13 +2888,13 @@
         <v>11</v>
       </c>
       <c r="B46" s="5">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E46" s="7">
         <f>_xlfn.QUARTILE.EXC(B36:B65,2)</f>
@@ -2780,7 +2907,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="5">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>2</v>
@@ -2808,13 +2935,18 @@
         <v>14</v>
       </c>
       <c r="B49" s="5">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="7"/>
+      <c r="D49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="7">
+        <f>MAX(B36:B65) - MIN(B36:B65)</f>
+        <v>38</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -2822,7 +2954,7 @@
         <v>15</v>
       </c>
       <c r="B50" s="5">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>2</v>
@@ -2836,7 +2968,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="5">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>2</v>
@@ -2850,12 +2982,14 @@
         <v>17</v>
       </c>
       <c r="B52" s="5">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="6"/>
+      <c r="D52" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2864,13 +2998,18 @@
         <v>18</v>
       </c>
       <c r="B53" s="5">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="7"/>
+      <c r="D53" s="16">
+        <v>3</v>
+      </c>
+      <c r="E53" s="7">
+        <f>QUARTILE(B36:B66,3)</f>
+        <v>178.75</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -2878,13 +3017,18 @@
         <v>19</v>
       </c>
       <c r="B54" s="5">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
+      <c r="D54" s="16">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7">
+        <f>QUARTILE(B36:B65,1)</f>
+        <v>167.5</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -2892,13 +3036,18 @@
         <v>20</v>
       </c>
       <c r="B55" s="5">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
+      <c r="D55" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="7">
+        <f>E53-E54</f>
+        <v>11.25</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -2906,7 +3055,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="5">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>2</v>
@@ -2920,7 +3069,7 @@
         <v>22</v>
       </c>
       <c r="B57" s="5">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>2</v>
@@ -2934,7 +3083,7 @@
         <v>23</v>
       </c>
       <c r="B58" s="5">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>2</v>
@@ -2948,7 +3097,7 @@
         <v>24</v>
       </c>
       <c r="B59" s="5">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>2</v>
@@ -2962,10 +3111,10 @@
         <v>25</v>
       </c>
       <c r="B60" s="5">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
@@ -2976,10 +3125,10 @@
         <v>26</v>
       </c>
       <c r="B61" s="5">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
@@ -2990,10 +3139,10 @@
         <v>27</v>
       </c>
       <c r="B62" s="5">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
@@ -3004,10 +3153,10 @@
         <v>28</v>
       </c>
       <c r="B63" s="5">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
@@ -3018,40 +3167,646 @@
         <v>29</v>
       </c>
       <c r="B64" s="5">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B65" s="5">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="10"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
     </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="5">
+        <v>156</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <f>B69-$E$37</f>
+        <v>-16.800000000000011</v>
+      </c>
+      <c r="E69">
+        <f>D69^2</f>
+        <v>282.24000000000041</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="5">
+        <v>156</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ref="D70:D98" si="2">B70-$E$37</f>
+        <v>-16.800000000000011</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ref="E70:E97" si="3">D70^2</f>
+        <v>282.24000000000041</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="5">
+        <v>158</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>-14.800000000000011</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>219.04000000000033</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="5">
+        <v>160</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>-12.800000000000011</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>163.84000000000029</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="5">
+        <v>160</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>-12.800000000000011</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>163.84000000000029</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="5">
+        <v>161</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>-11.800000000000011</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>139.24000000000026</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="5">
+        <v>164</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>-8.8000000000000114</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>77.440000000000197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="5">
+        <v>167</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>-5.8000000000000114</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>33.640000000000128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="5">
+        <v>169</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>-3.8000000000000114</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>14.440000000000087</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="5">
+        <v>169</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>-3.8000000000000114</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>14.440000000000087</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="5">
+        <v>170</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>-2.8000000000000114</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>7.8400000000000638</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="5">
+        <v>171</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>-1.8000000000000114</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>3.2400000000000411</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="5">
+        <v>172</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>-0.80000000000001137</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>0.64000000000001822</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="5">
+        <v>172</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>-0.80000000000001137</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>0.64000000000001822</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="5">
+        <v>174</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>1.4399999999999726</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="5">
+        <v>175</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>4.8399999999999501</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="5">
+        <v>176</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="3"/>
+        <v>10.239999999999927</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="5">
+        <v>176</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="3"/>
+        <v>10.239999999999927</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="5">
+        <v>176</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="3"/>
+        <v>10.239999999999927</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="5">
+        <v>176</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="3"/>
+        <v>10.239999999999927</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="5">
+        <v>177</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>4.1999999999999886</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="3"/>
+        <v>17.639999999999905</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="5">
+        <v>178</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>5.1999999999999886</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="3"/>
+        <v>27.039999999999882</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="5">
+        <v>179</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>6.1999999999999886</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="3"/>
+        <v>38.439999999999856</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="5">
+        <v>180</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999886</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="3"/>
+        <v>51.839999999999833</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="5">
+        <v>180</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999886</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="3"/>
+        <v>51.839999999999833</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="5">
+        <v>180</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999886</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="3"/>
+        <v>51.839999999999833</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="5">
+        <v>182</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>9.1999999999999886</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="3"/>
+        <v>84.639999999999787</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="5">
+        <v>183</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="2"/>
+        <v>10.199999999999989</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="3"/>
+        <v>104.03999999999976</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="5">
+        <v>193</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="2"/>
+        <v>20.199999999999989</v>
+      </c>
+      <c r="E97">
+        <f>D97^2</f>
+        <v>408.03999999999957</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="5">
+        <v>194</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="2"/>
+        <v>21.199999999999989</v>
+      </c>
+      <c r="E98">
+        <f>D98^2</f>
+        <v>449.43999999999954</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <f>SUM(D69:D98)</f>
+        <v>-3.4106051316484809E-13</v>
+      </c>
+      <c r="E99">
+        <f>SUM(E69:E98)</f>
+        <v>2734.8000000000011</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102">
+        <f>E99/29</f>
+        <v>94.30344827586211</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104">
+        <f>SQRT(E102)</f>
+        <v>9.7109962555786264</v>
+      </c>
+      <c r="F104">
+        <f>_xlfn.STDEV.S(B69:B98)</f>
+        <v>9.7109962555786264</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>190</v>
+      </c>
+      <c r="D108">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>180</v>
+      </c>
+      <c r="D109">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>170</v>
+      </c>
+      <c r="D110">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>160</v>
+      </c>
+      <c r="D111">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>150</v>
+      </c>
+      <c r="D112">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113">
+        <f>AVERAGE(C108:C112)</f>
+        <v>170</v>
+      </c>
+      <c r="D113">
+        <f>AVERAGE(D108:D112)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114">
+        <f>_xlfn.STDEV.S(C108:C112)</f>
+        <v>15.811388300841896</v>
+      </c>
+      <c r="D114">
+        <f>_xlfn.STDEV.S(D108:D113)</f>
+        <v>7.0710678118654755</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B37:C66">
-    <sortCondition ref="C37:C66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B36:C65">
+    <sortCondition ref="B36:B65"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
@@ -3061,5 +3816,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
   <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/___Estadistica_1-Notas___/__Ejemplos_En_Clase__/2020-01-14-Clase.xlsx
+++ b/___Estadistica_1-Notas___/__Ejemplos_En_Clase__/2020-01-14-Clase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_Semestre-[Enero-Mayo-2020]\____SumaDeCursosUFM2.1____\___Estadistica_1-Notas___\__Ejemplos_En_Clase__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D1AB4E-C1AA-44F6-ACFB-E15DDFB3D1F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D663C57F-8D8D-43E0-A3A7-105D288362B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="40">
   <si>
     <t>Estatura</t>
   </si>
@@ -164,6 +166,15 @@
   <si>
     <t>desviación estándar</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>A-1 desviación estándar de la media</t>
+  </si>
+  <si>
+    <t>A+1 desviación estándar de la media</t>
+  </si>
 </sst>
 </file>
 
@@ -172,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;Q&quot;#,##0;[Red]\-&quot;Q&quot;#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,12 +205,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -302,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -331,6 +336,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1900,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="106" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3199,513 +3213,546 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="5">
+      <c r="B69" s="23">
         <v>156</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="24">
         <f>B69-$E$37</f>
         <v>-16.800000000000011</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="24">
         <f>D69^2</f>
         <v>282.24000000000041</v>
       </c>
+      <c r="F69" s="25"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="5">
+      <c r="B70" s="23">
         <v>156</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="24">
         <f t="shared" ref="D70:D98" si="2">B70-$E$37</f>
         <v>-16.800000000000011</v>
       </c>
-      <c r="E70">
-        <f t="shared" ref="E70:E97" si="3">D70^2</f>
+      <c r="E70" s="24">
+        <f t="shared" ref="E70:E96" si="3">D70^2</f>
         <v>282.24000000000041</v>
       </c>
+      <c r="F70" s="25"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="5">
+      <c r="B71" s="23">
         <v>158</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="24">
         <f t="shared" si="2"/>
         <v>-14.800000000000011</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="24">
         <f t="shared" si="3"/>
         <v>219.04000000000033</v>
       </c>
+      <c r="F71" s="25"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="5">
+      <c r="B72" s="23">
         <v>160</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="24">
         <f t="shared" si="2"/>
         <v>-12.800000000000011</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="24">
         <f t="shared" si="3"/>
         <v>163.84000000000029</v>
       </c>
+      <c r="F72" s="25"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="5">
+      <c r="B73" s="23">
         <v>160</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="24">
         <f t="shared" si="2"/>
         <v>-12.800000000000011</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="24">
         <f t="shared" si="3"/>
         <v>163.84000000000029</v>
       </c>
+      <c r="F73" s="25"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="5">
+      <c r="B74" s="23">
         <v>161</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="24">
         <f t="shared" si="2"/>
         <v>-11.800000000000011</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="24">
         <f t="shared" si="3"/>
         <v>139.24000000000026</v>
       </c>
+      <c r="F74" s="25"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="5">
+      <c r="B75" s="23">
         <v>164</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75">
+      <c r="C75" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="24">
         <f t="shared" si="2"/>
         <v>-8.8000000000000114</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="24">
         <f t="shared" si="3"/>
         <v>77.440000000000197</v>
       </c>
+      <c r="F75" s="25"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="5">
+      <c r="B76" s="23">
         <v>167</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76">
+      <c r="C76" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="24">
         <f t="shared" si="2"/>
         <v>-5.8000000000000114</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="24">
         <f t="shared" si="3"/>
         <v>33.640000000000128</v>
       </c>
+      <c r="F76" s="25"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="5">
+      <c r="B77" s="23">
         <v>169</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77">
+      <c r="C77" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="24">
         <f t="shared" si="2"/>
         <v>-3.8000000000000114</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="24">
         <f t="shared" si="3"/>
         <v>14.440000000000087</v>
       </c>
+      <c r="F77" s="25"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="5">
+      <c r="B78" s="23">
         <v>169</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78">
+      <c r="C78" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="24">
         <f t="shared" si="2"/>
         <v>-3.8000000000000114</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="24">
         <f t="shared" si="3"/>
         <v>14.440000000000087</v>
       </c>
+      <c r="F78" s="25"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="5">
+      <c r="B79" s="23">
         <v>170</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79">
+      <c r="C79" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="24">
         <f t="shared" si="2"/>
         <v>-2.8000000000000114</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="24">
         <f t="shared" si="3"/>
         <v>7.8400000000000638</v>
       </c>
+      <c r="F79" s="25"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="5">
+      <c r="B80" s="23">
         <v>171</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80">
+      <c r="C80" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="24">
         <f t="shared" si="2"/>
         <v>-1.8000000000000114</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="24">
         <f t="shared" si="3"/>
         <v>3.2400000000000411</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="5">
+      <c r="F80" s="25"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="23">
         <v>172</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81">
+      <c r="C81" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="24">
         <f t="shared" si="2"/>
         <v>-0.80000000000001137</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="24">
         <f t="shared" si="3"/>
         <v>0.64000000000001822</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="5">
+      <c r="F81" s="25"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="23">
         <v>172</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82">
+      <c r="C82" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="24">
         <f t="shared" si="2"/>
         <v>-0.80000000000001137</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="24">
         <f t="shared" si="3"/>
         <v>0.64000000000001822</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="5">
+      <c r="F82" s="25"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="23">
         <v>174</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83">
+      <c r="C83" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="24">
         <f t="shared" si="2"/>
         <v>1.1999999999999886</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="24">
         <f t="shared" si="3"/>
         <v>1.4399999999999726</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="5">
+      <c r="F83" s="25"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="23">
         <v>175</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84">
+      <c r="C84" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="24">
         <f t="shared" si="2"/>
         <v>2.1999999999999886</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="24">
         <f t="shared" si="3"/>
         <v>4.8399999999999501</v>
       </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="5">
+      <c r="F84" s="25"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="23">
         <v>176</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85">
+      <c r="C85" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="24">
         <f t="shared" si="2"/>
         <v>3.1999999999999886</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="24">
         <f t="shared" si="3"/>
         <v>10.239999999999927</v>
       </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="5">
+      <c r="F85" s="25"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="23">
         <v>176</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86">
+      <c r="C86" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="24">
         <f t="shared" si="2"/>
         <v>3.1999999999999886</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="24">
         <f t="shared" si="3"/>
         <v>10.239999999999927</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="5">
+      <c r="F86" s="25"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="23">
         <v>176</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87">
+      <c r="C87" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="24">
         <f t="shared" si="2"/>
         <v>3.1999999999999886</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="24">
         <f t="shared" si="3"/>
         <v>10.239999999999927</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="5">
+      <c r="F87" s="25"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="23">
         <v>176</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88">
+      <c r="C88" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="24">
         <f t="shared" si="2"/>
         <v>3.1999999999999886</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="24">
         <f t="shared" si="3"/>
         <v>10.239999999999927</v>
       </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="5">
+      <c r="F88" s="25"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="23">
         <v>177</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89">
+      <c r="C89" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="24">
         <f t="shared" si="2"/>
         <v>4.1999999999999886</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="24">
         <f t="shared" si="3"/>
         <v>17.639999999999905</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="5">
+      <c r="F89" s="25"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="23">
         <v>178</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90">
+      <c r="C90" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="24">
         <f t="shared" si="2"/>
         <v>5.1999999999999886</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="24">
         <f t="shared" si="3"/>
         <v>27.039999999999882</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="5">
+      <c r="F90" s="25"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="23">
         <v>179</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91">
+      <c r="C91" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="24">
         <f t="shared" si="2"/>
         <v>6.1999999999999886</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="24">
         <f t="shared" si="3"/>
         <v>38.439999999999856</v>
       </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="5">
+      <c r="F91" s="25"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="23">
         <v>180</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92">
+      <c r="C92" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="24">
         <f t="shared" si="2"/>
         <v>7.1999999999999886</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="24">
         <f t="shared" si="3"/>
         <v>51.839999999999833</v>
       </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="5">
+      <c r="F92" s="25"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="23">
         <v>180</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93">
+      <c r="C93" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="24">
         <f t="shared" si="2"/>
         <v>7.1999999999999886</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="24">
         <f t="shared" si="3"/>
         <v>51.839999999999833</v>
       </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="5">
+      <c r="F93" s="25"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="23">
         <v>180</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94">
+      <c r="C94" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="24">
         <f t="shared" si="2"/>
         <v>7.1999999999999886</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="24">
         <f t="shared" si="3"/>
         <v>51.839999999999833</v>
       </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="5">
+      <c r="F94" s="25"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="23">
         <v>182</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95">
+      <c r="C95" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="24">
         <f t="shared" si="2"/>
         <v>9.1999999999999886</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="24">
         <f t="shared" si="3"/>
         <v>84.639999999999787</v>
       </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="5">
+      <c r="F95" s="25"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="23">
         <v>183</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96">
+      <c r="C96" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="24">
         <f t="shared" si="2"/>
         <v>10.199999999999989</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="24">
         <f t="shared" si="3"/>
         <v>104.03999999999976</v>
       </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="5">
+      <c r="F96" s="25"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="23">
         <v>193</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97">
+      <c r="C97" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="24">
         <f t="shared" si="2"/>
         <v>20.199999999999989</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="24">
         <f>D97^2</f>
         <v>408.03999999999957</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="5">
+      <c r="F97" s="25"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="23">
         <v>194</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98">
+      <c r="C98" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="24">
         <f t="shared" si="2"/>
         <v>21.199999999999989</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="24">
         <f>D98^2</f>
         <v>449.43999999999954</v>
       </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D99">
+      <c r="F98" s="25"/>
+    </row>
+    <row r="99" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="26"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27">
         <f>SUM(D69:D98)</f>
         <v>-3.4106051316484809E-13</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="27">
         <f>SUM(E69:E98)</f>
         <v>2734.8000000000011</v>
       </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="28"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>30</v>
       </c>
@@ -3714,7 +3761,12 @@
         <v>94.30344827586211</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H103" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>31</v>
       </c>
@@ -3726,8 +3778,18 @@
         <f>_xlfn.STDEV.S(B69:B98)</f>
         <v>9.7109962555786264</v>
       </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <f>E37-E104</f>
+        <v>163.08900374442138</v>
+      </c>
+      <c r="H104" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>32</v>
       </c>
@@ -3738,7 +3800,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C108">
         <v>190</v>
       </c>
@@ -3746,7 +3808,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C109">
         <v>180</v>
       </c>
@@ -3754,7 +3816,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C110">
         <v>170</v>
       </c>
@@ -3762,7 +3824,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C111">
         <v>160</v>
       </c>
@@ -3770,7 +3832,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C112">
         <v>150</v>
       </c>
@@ -3778,7 +3840,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>35</v>
       </c>
@@ -3791,7 +3853,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>36</v>
       </c>
@@ -3802,6 +3864,32 @@
       <c r="D114">
         <f>_xlfn.STDEV.S(D108:D113)</f>
         <v>7.0710678118654755</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>37</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117" t="s">
+        <v>37</v>
+      </c>
+      <c r="D117" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" t="s">
+        <v>37</v>
+      </c>
+      <c r="F117" t="s">
+        <v>37</v>
+      </c>
+      <c r="G117" t="s">
+        <v>37</v>
+      </c>
+      <c r="H117" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/___Estadistica_1-Notas___/__Ejemplos_En_Clase__/2020-01-14-Clase.xlsx
+++ b/___Estadistica_1-Notas___/__Ejemplos_En_Clase__/2020-01-14-Clase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_Semestre-[Enero-Mayo-2020]\____SumaDeCursosUFM2.1____\___Estadistica_1-Notas___\__Ejemplos_En_Clase__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D663C57F-8D8D-43E0-A3A7-105D288362B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE68284D-2FA3-4989-ABC2-A7460368E705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3465" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -327,6 +327,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -336,15 +345,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="106" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,16 +1934,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -2649,17 +2649,17 @@
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
@@ -2831,7 +2831,7 @@
         <f>_xlfn.PERCENTILE.INC(B36:B65,0.2)</f>
         <v>163.4</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="28" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="15" t="s">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="19"/>
+      <c r="F43" s="28"/>
       <c r="G43" s="15" t="s">
         <v>10</v>
       </c>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="19"/>
+      <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -3213,544 +3213,544 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E68" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F68" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="23">
+      <c r="B69" s="20">
         <v>156</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="24">
+      <c r="D69" s="21">
         <f>B69-$E$37</f>
         <v>-16.800000000000011</v>
       </c>
-      <c r="E69" s="24">
+      <c r="E69" s="21">
         <f>D69^2</f>
         <v>282.24000000000041</v>
       </c>
-      <c r="F69" s="25"/>
+      <c r="F69" s="22"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="23">
+      <c r="B70" s="20">
         <v>156</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D70" s="21">
         <f t="shared" ref="D70:D98" si="2">B70-$E$37</f>
         <v>-16.800000000000011</v>
       </c>
-      <c r="E70" s="24">
+      <c r="E70" s="21">
         <f t="shared" ref="E70:E96" si="3">D70^2</f>
         <v>282.24000000000041</v>
       </c>
-      <c r="F70" s="25"/>
+      <c r="F70" s="22"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="23">
+      <c r="B71" s="20">
         <v>158</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="24">
+      <c r="D71" s="21">
         <f t="shared" si="2"/>
         <v>-14.800000000000011</v>
       </c>
-      <c r="E71" s="24">
+      <c r="E71" s="21">
         <f t="shared" si="3"/>
         <v>219.04000000000033</v>
       </c>
-      <c r="F71" s="25"/>
+      <c r="F71" s="22"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="23">
+      <c r="B72" s="20">
         <v>160</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D72" s="21">
         <f t="shared" si="2"/>
         <v>-12.800000000000011</v>
       </c>
-      <c r="E72" s="24">
+      <c r="E72" s="21">
         <f t="shared" si="3"/>
         <v>163.84000000000029</v>
       </c>
-      <c r="F72" s="25"/>
+      <c r="F72" s="22"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="23">
+      <c r="B73" s="20">
         <v>160</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="24">
+      <c r="D73" s="21">
         <f t="shared" si="2"/>
         <v>-12.800000000000011</v>
       </c>
-      <c r="E73" s="24">
+      <c r="E73" s="21">
         <f t="shared" si="3"/>
         <v>163.84000000000029</v>
       </c>
-      <c r="F73" s="25"/>
+      <c r="F73" s="22"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="23">
+      <c r="B74" s="20">
         <v>161</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="24">
+      <c r="D74" s="21">
         <f t="shared" si="2"/>
         <v>-11.800000000000011</v>
       </c>
-      <c r="E74" s="24">
+      <c r="E74" s="21">
         <f t="shared" si="3"/>
         <v>139.24000000000026</v>
       </c>
-      <c r="F74" s="25"/>
+      <c r="F74" s="22"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="23">
+      <c r="B75" s="20">
         <v>164</v>
       </c>
-      <c r="C75" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="24">
+      <c r="C75" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="21">
         <f t="shared" si="2"/>
         <v>-8.8000000000000114</v>
       </c>
-      <c r="E75" s="24">
+      <c r="E75" s="21">
         <f t="shared" si="3"/>
         <v>77.440000000000197</v>
       </c>
-      <c r="F75" s="25"/>
+      <c r="F75" s="22"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="23">
+      <c r="B76" s="20">
         <v>167</v>
       </c>
-      <c r="C76" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="24">
+      <c r="C76" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="21">
         <f t="shared" si="2"/>
         <v>-5.8000000000000114</v>
       </c>
-      <c r="E76" s="24">
+      <c r="E76" s="21">
         <f t="shared" si="3"/>
         <v>33.640000000000128</v>
       </c>
-      <c r="F76" s="25"/>
+      <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="23">
+      <c r="B77" s="20">
         <v>169</v>
       </c>
-      <c r="C77" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="24">
+      <c r="C77" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="21">
         <f t="shared" si="2"/>
         <v>-3.8000000000000114</v>
       </c>
-      <c r="E77" s="24">
+      <c r="E77" s="21">
         <f t="shared" si="3"/>
         <v>14.440000000000087</v>
       </c>
-      <c r="F77" s="25"/>
+      <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="23">
+      <c r="B78" s="20">
         <v>169</v>
       </c>
-      <c r="C78" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="24">
+      <c r="C78" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="21">
         <f t="shared" si="2"/>
         <v>-3.8000000000000114</v>
       </c>
-      <c r="E78" s="24">
+      <c r="E78" s="21">
         <f t="shared" si="3"/>
         <v>14.440000000000087</v>
       </c>
-      <c r="F78" s="25"/>
+      <c r="F78" s="22"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="23">
+      <c r="B79" s="20">
         <v>170</v>
       </c>
-      <c r="C79" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="24">
+      <c r="C79" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="21">
         <f t="shared" si="2"/>
         <v>-2.8000000000000114</v>
       </c>
-      <c r="E79" s="24">
+      <c r="E79" s="21">
         <f t="shared" si="3"/>
         <v>7.8400000000000638</v>
       </c>
-      <c r="F79" s="25"/>
+      <c r="F79" s="22"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="23">
+      <c r="B80" s="20">
         <v>171</v>
       </c>
-      <c r="C80" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="24">
+      <c r="C80" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="21">
         <f t="shared" si="2"/>
         <v>-1.8000000000000114</v>
       </c>
-      <c r="E80" s="24">
+      <c r="E80" s="21">
         <f t="shared" si="3"/>
         <v>3.2400000000000411</v>
       </c>
-      <c r="F80" s="25"/>
+      <c r="F80" s="22"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="23">
+      <c r="B81" s="20">
         <v>172</v>
       </c>
-      <c r="C81" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="24">
+      <c r="C81" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="21">
         <f t="shared" si="2"/>
         <v>-0.80000000000001137</v>
       </c>
-      <c r="E81" s="24">
+      <c r="E81" s="21">
         <f t="shared" si="3"/>
         <v>0.64000000000001822</v>
       </c>
-      <c r="F81" s="25"/>
+      <c r="F81" s="22"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="23">
+      <c r="B82" s="20">
         <v>172</v>
       </c>
-      <c r="C82" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="24">
+      <c r="C82" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="21">
         <f t="shared" si="2"/>
         <v>-0.80000000000001137</v>
       </c>
-      <c r="E82" s="24">
+      <c r="E82" s="21">
         <f t="shared" si="3"/>
         <v>0.64000000000001822</v>
       </c>
-      <c r="F82" s="25"/>
+      <c r="F82" s="22"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="23">
+      <c r="B83" s="20">
         <v>174</v>
       </c>
-      <c r="C83" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="24">
+      <c r="C83" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="21">
         <f t="shared" si="2"/>
         <v>1.1999999999999886</v>
       </c>
-      <c r="E83" s="24">
+      <c r="E83" s="21">
         <f t="shared" si="3"/>
         <v>1.4399999999999726</v>
       </c>
-      <c r="F83" s="25"/>
+      <c r="F83" s="22"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="23">
+      <c r="B84" s="20">
         <v>175</v>
       </c>
-      <c r="C84" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="24">
+      <c r="C84" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="21">
         <f t="shared" si="2"/>
         <v>2.1999999999999886</v>
       </c>
-      <c r="E84" s="24">
+      <c r="E84" s="21">
         <f t="shared" si="3"/>
         <v>4.8399999999999501</v>
       </c>
-      <c r="F84" s="25"/>
+      <c r="F84" s="22"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="23">
+      <c r="B85" s="20">
         <v>176</v>
       </c>
-      <c r="C85" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85" s="24">
+      <c r="C85" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="21">
         <f t="shared" si="2"/>
         <v>3.1999999999999886</v>
       </c>
-      <c r="E85" s="24">
+      <c r="E85" s="21">
         <f t="shared" si="3"/>
         <v>10.239999999999927</v>
       </c>
-      <c r="F85" s="25"/>
+      <c r="F85" s="22"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="23">
+      <c r="B86" s="20">
         <v>176</v>
       </c>
-      <c r="C86" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="24">
+      <c r="C86" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="21">
         <f t="shared" si="2"/>
         <v>3.1999999999999886</v>
       </c>
-      <c r="E86" s="24">
+      <c r="E86" s="21">
         <f t="shared" si="3"/>
         <v>10.239999999999927</v>
       </c>
-      <c r="F86" s="25"/>
+      <c r="F86" s="22"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="23">
+      <c r="B87" s="20">
         <v>176</v>
       </c>
-      <c r="C87" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="24">
+      <c r="C87" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="21">
         <f t="shared" si="2"/>
         <v>3.1999999999999886</v>
       </c>
-      <c r="E87" s="24">
+      <c r="E87" s="21">
         <f t="shared" si="3"/>
         <v>10.239999999999927</v>
       </c>
-      <c r="F87" s="25"/>
+      <c r="F87" s="22"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="23">
+      <c r="B88" s="20">
         <v>176</v>
       </c>
-      <c r="C88" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="24">
+      <c r="C88" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="21">
         <f t="shared" si="2"/>
         <v>3.1999999999999886</v>
       </c>
-      <c r="E88" s="24">
+      <c r="E88" s="21">
         <f t="shared" si="3"/>
         <v>10.239999999999927</v>
       </c>
-      <c r="F88" s="25"/>
+      <c r="F88" s="22"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="23">
+      <c r="B89" s="20">
         <v>177</v>
       </c>
-      <c r="C89" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="24">
+      <c r="C89" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="21">
         <f t="shared" si="2"/>
         <v>4.1999999999999886</v>
       </c>
-      <c r="E89" s="24">
+      <c r="E89" s="21">
         <f t="shared" si="3"/>
         <v>17.639999999999905</v>
       </c>
-      <c r="F89" s="25"/>
+      <c r="F89" s="22"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="23">
+      <c r="B90" s="20">
         <v>178</v>
       </c>
-      <c r="C90" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="24">
+      <c r="C90" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="21">
         <f t="shared" si="2"/>
         <v>5.1999999999999886</v>
       </c>
-      <c r="E90" s="24">
+      <c r="E90" s="21">
         <f t="shared" si="3"/>
         <v>27.039999999999882</v>
       </c>
-      <c r="F90" s="25"/>
+      <c r="F90" s="22"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="23">
+      <c r="B91" s="20">
         <v>179</v>
       </c>
-      <c r="C91" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" s="24">
+      <c r="C91" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="21">
         <f t="shared" si="2"/>
         <v>6.1999999999999886</v>
       </c>
-      <c r="E91" s="24">
+      <c r="E91" s="21">
         <f t="shared" si="3"/>
         <v>38.439999999999856</v>
       </c>
-      <c r="F91" s="25"/>
+      <c r="F91" s="22"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="23">
+      <c r="B92" s="20">
         <v>180</v>
       </c>
-      <c r="C92" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" s="24">
+      <c r="C92" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="21">
         <f t="shared" si="2"/>
         <v>7.1999999999999886</v>
       </c>
-      <c r="E92" s="24">
+      <c r="E92" s="21">
         <f t="shared" si="3"/>
         <v>51.839999999999833</v>
       </c>
-      <c r="F92" s="25"/>
+      <c r="F92" s="22"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="23">
+      <c r="B93" s="20">
         <v>180</v>
       </c>
-      <c r="C93" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="24">
+      <c r="C93" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="21">
         <f t="shared" si="2"/>
         <v>7.1999999999999886</v>
       </c>
-      <c r="E93" s="24">
+      <c r="E93" s="21">
         <f t="shared" si="3"/>
         <v>51.839999999999833</v>
       </c>
-      <c r="F93" s="25"/>
+      <c r="F93" s="22"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="23">
+      <c r="B94" s="20">
         <v>180</v>
       </c>
-      <c r="C94" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="24">
+      <c r="C94" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="21">
         <f t="shared" si="2"/>
         <v>7.1999999999999886</v>
       </c>
-      <c r="E94" s="24">
+      <c r="E94" s="21">
         <f t="shared" si="3"/>
         <v>51.839999999999833</v>
       </c>
-      <c r="F94" s="25"/>
+      <c r="F94" s="22"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="23">
+      <c r="B95" s="20">
         <v>182</v>
       </c>
-      <c r="C95" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" s="24">
+      <c r="C95" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="21">
         <f t="shared" si="2"/>
         <v>9.1999999999999886</v>
       </c>
-      <c r="E95" s="24">
+      <c r="E95" s="21">
         <f t="shared" si="3"/>
         <v>84.639999999999787</v>
       </c>
-      <c r="F95" s="25"/>
+      <c r="F95" s="22"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="23">
+      <c r="B96" s="20">
         <v>183</v>
       </c>
-      <c r="C96" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="24">
+      <c r="C96" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="21">
         <f t="shared" si="2"/>
         <v>10.199999999999989</v>
       </c>
-      <c r="E96" s="24">
+      <c r="E96" s="21">
         <f t="shared" si="3"/>
         <v>104.03999999999976</v>
       </c>
-      <c r="F96" s="25"/>
+      <c r="F96" s="22"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="23">
+      <c r="B97" s="20">
         <v>193</v>
       </c>
-      <c r="C97" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="24">
+      <c r="C97" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="21">
         <f t="shared" si="2"/>
         <v>20.199999999999989</v>
       </c>
-      <c r="E97" s="24">
+      <c r="E97" s="21">
         <f>D97^2</f>
         <v>408.03999999999957</v>
       </c>
-      <c r="F97" s="25"/>
+      <c r="F97" s="22"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="23">
+      <c r="B98" s="20">
         <v>194</v>
       </c>
-      <c r="C98" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="24">
+      <c r="C98" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="21">
         <f t="shared" si="2"/>
         <v>21.199999999999989</v>
       </c>
-      <c r="E98" s="24">
+      <c r="E98" s="21">
         <f>D98^2</f>
         <v>449.43999999999954</v>
       </c>
-      <c r="F98" s="25"/>
+      <c r="F98" s="22"/>
     </row>
     <row r="99" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="26"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27">
+      <c r="B99" s="23"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24">
         <f>SUM(D69:D98)</f>
         <v>-3.4106051316484809E-13</v>
       </c>
-      <c r="E99" s="27">
+      <c r="E99" s="24">
         <f>SUM(E69:E98)</f>
         <v>2734.8000000000011</v>
       </c>
-      <c r="F99" s="28"/>
+      <c r="F99" s="25"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
